--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3917132.201243962</v>
+        <v>4019929.621311617</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7183726.898283529</v>
+        <v>7149827.168019572</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>217.6941418399134</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.596724502525226</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.26879610204004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>101.3208278811444</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>125.0132180293231</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>297.4176400813329</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>63.13625055643865</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.68882596871748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>108.9520512661119</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>322.6110453484161</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>282.2580660716607</v>
+        <v>132.7585420810688</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>139.6152205166462</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>40.53421095546963</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>42.71572132711237</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.52079624060555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972051</v>
+        <v>159.6155901915572</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>6.600826611594025</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>193.120802835248</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>164.9367233701387</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308922</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>83.06560892428088</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>74.20064764874475</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652662</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379708</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X2" t="n">
-        <v>2435.796531379708</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>315.7463345171083</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>168.8563870191979</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>452.6479724696239</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y4" t="n">
-        <v>231.8553933260938</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2102.48089954095</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y5" t="n">
-        <v>2489.080739605072</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8459426266614</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266614</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1773.690100384972</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1773.690100384972</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1484.587233510615</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1229.902745304728</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>940.4855752677674</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>712.4960243697501</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.4944074569011</v>
+        <v>491.70344522622</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796252</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392135</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="D8" t="n">
-        <v>194.542240332463</v>
+        <v>1142.948263149733</v>
       </c>
       <c r="E8" t="n">
-        <v>84.48966329598633</v>
+        <v>1142.948263149733</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>731.9623583601253</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415547</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>1330.588317767405</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="X10" t="n">
-        <v>1102.598766869387</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.8061877258572</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F16" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,19 +5655,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277359</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277359</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>216.8470138298256</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,31 +6007,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2490.32382148308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3087.702309109632</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6130,19 +6132,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>219.0505596597677</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6206,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2951.54259528685</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2782.606412358944</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2632.489772946608</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2484.576679364215</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4634.751540034345</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4415.150075057287</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>4126.074848401485</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3871.390360195598</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3581.973190158637</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3353.98363926062</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3133.19106011709</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>3113.560578231863</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>2944.624395303957</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>2794.507755891621</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>2646.594662309228</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>2646.594662309228</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>4060.103280448481</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>3805.418792242594</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>3516.001622205633</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>3516.001622205633</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>3295.209043062103</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213312</v>
+        <v>2978.516248701934</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247061</v>
+        <v>2809.580065774027</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796382</v>
+        <v>2659.463426361692</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175645</v>
+        <v>2511.550332779299</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.757116639391</v>
+        <v>2511.550332779299</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315927</v>
+        <v>2344.354233494179</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119781</v>
+        <v>2344.354233494179</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729351</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176794</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719452</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912512</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660666</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337793</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063898</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654575</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612652</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229213</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.920990213811</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519665</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275434</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.33394620013</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263769</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081895</v>
+        <v>3160.164713532174</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>803.2707707770312</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>634.3345878491242</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>484.2179484367883</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>484.2179484367883</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>484.2179484367883</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>984.919235607271</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>177.7213185270435</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580121</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345484</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384028</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7627,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7661,34 +7663,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,22 +7788,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>49.60187266209428</v>
       </c>
       <c r="G16" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9.000252501566166</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>124.9899273367992</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.505489761039</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>126.5688841976871</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>74.6650097069716</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.5874149221302787</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194309</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>71.2204003741865</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615728.997172714</v>
+        <v>615728.9971727141</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615728.997172714</v>
+        <v>615728.9971727141</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>626150.374803422</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>626150.374803422</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>626150.374803422</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>626150.374803422</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626150.374803422</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900067</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642836</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642849</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642849</v>
-      </c>
       <c r="O2" t="n">
-        <v>821041.7698642847</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26392,19 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>7.895340996373516e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.657689949569221e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314483</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314482</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.0670231448</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314479</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314483</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11167.03225179341</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11167.03225179345</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11167.03225179348</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11167.03225179348</v>
+      </c>
+      <c r="O4" t="n">
         <v>11167.03225179352</v>
       </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19157.89151488705</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19157.89151488705</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11167.03225179352</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705990.9834478474</v>
+        <v>-705990.9834478477</v>
       </c>
       <c r="C6" t="n">
+        <v>622753.7622797453</v>
+      </c>
+      <c r="D6" t="n">
         <v>622753.762279745</v>
       </c>
-      <c r="D6" t="n">
-        <v>622753.7622797451</v>
-      </c>
       <c r="E6" t="n">
-        <v>369444.5758069502</v>
+        <v>369444.5758069505</v>
       </c>
       <c r="F6" t="n">
-        <v>694857.0376143055</v>
+        <v>694857.0376143053</v>
       </c>
       <c r="G6" t="n">
         <v>694857.0376143055</v>
       </c>
       <c r="H6" t="n">
+        <v>694857.0376143061</v>
+      </c>
+      <c r="I6" t="n">
+        <v>694857.0376143059</v>
+      </c>
+      <c r="J6" t="n">
+        <v>477325.8352170279</v>
+      </c>
+      <c r="K6" t="n">
+        <v>694857.0376143057</v>
+      </c>
+      <c r="L6" t="n">
+        <v>694857.0376143053</v>
+      </c>
+      <c r="M6" t="n">
+        <v>609802.009678794</v>
+      </c>
+      <c r="N6" t="n">
+        <v>694857.0376143057</v>
+      </c>
+      <c r="O6" t="n">
         <v>694857.0376143055</v>
       </c>
-      <c r="I6" t="n">
-        <v>694857.0376143057</v>
-      </c>
-      <c r="J6" t="n">
-        <v>477325.8352170282</v>
-      </c>
-      <c r="K6" t="n">
-        <v>679292.0445018495</v>
-      </c>
-      <c r="L6" t="n">
-        <v>698719.7624954823</v>
-      </c>
-      <c r="M6" t="n">
-        <v>613664.7345599706</v>
-      </c>
-      <c r="N6" t="n">
-        <v>698719.7624954825</v>
-      </c>
-      <c r="O6" t="n">
-        <v>698719.7624954823</v>
-      </c>
       <c r="P6" t="n">
-        <v>694857.0376143057</v>
+        <v>694857.0376143059</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.082211243696153e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>152.0369588385556</v>
       </c>
       <c r="Y2" t="n">
-        <v>384.6412141535284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.5631840798973</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>64.70498037788387</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,10 +27587,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>240.2596737416844</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>72.3134605971361</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>126.6327747750032</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>178.8958273833773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>272.9783188061499</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>88.31068030503735</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>4.26493226493028</v>
+        <v>153.7644562555222</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29098,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>-7.791945115923168e-14</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29806,16 +29808,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>-1.082211243696153e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.171144342199529e-14</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.171144342199529e-14</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>-1.082211243696153e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31838,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32315,28 +32317,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>362.1804684129204</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963275</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33034,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P30" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34448,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>224.3390294385614</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164533</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36682,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P30" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38096,16 +38098,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4019929.621311617</v>
+        <v>4015917.011297625</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>169.927021415373</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>217.6941418399134</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>101.3208278811444</v>
+        <v>37.59617708813177</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>297.4176400813329</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>85.47654389282619</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>63.13625055643865</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>236.5659834038149</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>322.6110453484161</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>132.7585420810688</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722617</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457614</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>35.88641949135547</v>
+        <v>46.86766651429274</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>95.81917536083697</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977262</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>139.6152205166462</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>28.75188085812011</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>79.41314830963849</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>159.6155901915572</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569554</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>6.600826611594025</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9367233701387</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>143.2091541404073</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428088</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20064764874475</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>577.7360715590718</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2752.944093773487</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.6594280995014</v>
+        <v>718.3439163053879</v>
       </c>
       <c r="C4" t="n">
-        <v>463.6594280995014</v>
+        <v>549.407733377481</v>
       </c>
       <c r="D4" t="n">
-        <v>463.6594280995014</v>
+        <v>399.2910939651453</v>
       </c>
       <c r="E4" t="n">
-        <v>315.7463345171083</v>
+        <v>251.3780003827521</v>
       </c>
       <c r="F4" t="n">
-        <v>168.8563870191979</v>
+        <v>104.4880528848418</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
         <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732712</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297411</v>
+        <v>899.9923811356276</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508903</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4640,16 +4640,16 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959802</v>
+        <v>934.4107598040977</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959802</v>
+        <v>765.4745768761908</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>615.357937463855</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>467.4448438814619</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>320.5548963835515</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>152.8520597582705</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1773.690100384972</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1773.690100384972</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.587233510615</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1229.902745304728</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>940.4855752677674</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>712.4960243697501</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>491.70344522622</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1501.213961756483</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C8" t="n">
-        <v>1501.213961756483</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D8" t="n">
-        <v>1142.948263149733</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.948263149733</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>731.9623583601253</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.813801820605</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1312.406259585337</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468466</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589156</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>580.899304487667</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>580.899304487667</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>430.7826650753312</v>
       </c>
       <c r="E13" t="n">
-        <v>585.863449565931</v>
+        <v>282.8695714929381</v>
       </c>
       <c r="F13" t="n">
-        <v>438.9735020680206</v>
+        <v>282.8695714929381</v>
       </c>
       <c r="G13" t="n">
-        <v>271.7774027829005</v>
+        <v>282.8695714929381</v>
       </c>
       <c r="H13" t="n">
-        <v>130.0655716250986</v>
+        <v>141.1577403351362</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>762.5477693179067</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5655,22 +5655,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
@@ -5758,46 +5758,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.57599612053</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>920.6398131926233</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235165</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>2009.423761029278</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.006590992317</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1492.0170400943</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1271.22446095077</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6007,19 +6007,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6028,13 +6028,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
         <v>484.8112968429802</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,7 +6481,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6490,22 +6490,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6557,13 +6557,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3113.560578231863</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2944.624395303957</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2794.507755891621</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024108</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4060.103280448481</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3805.418792242594</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3516.001622205633</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3516.001622205633</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3295.209043062103</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.516248701934</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2809.580065774027</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2659.463426361692</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2511.550332779299</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2511.550332779299</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2344.354233494179</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2344.354233494179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532174</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770312</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491242</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>484.2179484367883</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>484.2179484367883</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.2179484367883</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578604</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750801</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.919235607271</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7262,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400706</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121636</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121636</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270435</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138407</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1918.296605585279</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>335.9629114732381</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-1.187794616238935e-12</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>45.37941682721006</v>
+        <v>34.39816980427284</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>49.60187266209428</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124962</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>9.000252501566166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>206.7713260796057</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>126.5688841976871</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.294712846224</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>74.6650097069716</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5874149221302787</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>75.37549921168744</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194309</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856563</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>109.4223302771034</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>71.2204003741865</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615728.9971727141</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615728.9971727141</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615728.997172714</v>
+        <v>615728.9971727139</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615728.997172714</v>
+        <v>615728.9971727141</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615728.997172714</v>
+        <v>615728.9971727141</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900067</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900065</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="L2" t="n">
-        <v>807146.5996900058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
       <c r="N2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073544</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>7.895340996373516e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.657689949569221e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179362</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179357</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179357</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="H4" t="n">
-        <v>11167.03225179358</v>
-      </c>
       <c r="I4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179341</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179345</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705990.9834478477</v>
+        <v>-705990.9834478475</v>
       </c>
       <c r="C6" t="n">
-        <v>622753.7622797453</v>
+        <v>622753.762279745</v>
       </c>
       <c r="D6" t="n">
-        <v>622753.762279745</v>
+        <v>622753.7622797452</v>
       </c>
       <c r="E6" t="n">
-        <v>369444.5758069505</v>
+        <v>369097.1965525941</v>
       </c>
       <c r="F6" t="n">
-        <v>694857.0376143053</v>
+        <v>694509.6583599482</v>
       </c>
       <c r="G6" t="n">
-        <v>694857.0376143055</v>
+        <v>694509.6583599487</v>
       </c>
       <c r="H6" t="n">
-        <v>694857.0376143061</v>
+        <v>694509.6583599485</v>
       </c>
       <c r="I6" t="n">
-        <v>694857.0376143059</v>
+        <v>694509.6583599485</v>
       </c>
       <c r="J6" t="n">
-        <v>477325.8352170279</v>
+        <v>476978.4559626709</v>
       </c>
       <c r="K6" t="n">
-        <v>694857.0376143057</v>
+        <v>694509.6583599485</v>
       </c>
       <c r="L6" t="n">
-        <v>694857.0376143053</v>
+        <v>694509.6583599487</v>
       </c>
       <c r="M6" t="n">
-        <v>609802.009678794</v>
+        <v>609454.6304244371</v>
       </c>
       <c r="N6" t="n">
-        <v>694857.0376143057</v>
+        <v>694509.6583599488</v>
       </c>
       <c r="O6" t="n">
-        <v>694857.0376143055</v>
+        <v>694509.6583599485</v>
       </c>
       <c r="P6" t="n">
-        <v>694857.0376143059</v>
+        <v>694509.6583599487</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,22 +26813,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483748</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>240.9947042380804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>152.0369588385556</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>64.70498037788387</v>
+        <v>128.4296311708964</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>72.3134605971361</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.2784710214946</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>126.6327747750032</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>145.3643866684469</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>88.31068030503735</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>153.7644562555222</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>2.110130001765669e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>8.447311815557598e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29690,55 +29690,55 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.791945115923168e-14</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29808,16 +29808,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30167,52 +30167,52 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.171144342199529e-14</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30404,52 +30404,52 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.171144342199529e-14</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.082211243696153e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L12" t="n">
-        <v>579.5299594447137</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565781</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>316.2462973459351</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L12" t="n">
-        <v>440.9755796648395</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121337</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>176.2645232599136</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4015917.011297625</v>
+        <v>4017677.541600409</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>169.927021415373</v>
+        <v>169.9270214153725</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>37.59617708813177</v>
+        <v>37.59617708813133</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814307</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>85.47654389282619</v>
+        <v>85.4765438928262</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>236.5659834038149</v>
+        <v>236.5659834038144</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.6703719699171</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457614</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>46.86766651429274</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>217.7394735195574</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605716168</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881282</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>79.41314830963849</v>
+        <v>79.41314830963803</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.2091541404073</v>
+        <v>143.2091541404067</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>176.7621441121407</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4309,58 +4309,58 @@
         <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150257</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D2" t="n">
-        <v>584.6815723082752</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E2" t="n">
-        <v>584.6815723082752</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="F2" t="n">
-        <v>577.7360715590718</v>
+        <v>577.7360715590713</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,7 +4369,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
         <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.3439163053879</v>
+        <v>718.3439163053874</v>
       </c>
       <c r="C4" t="n">
-        <v>549.407733377481</v>
+        <v>549.4077333774806</v>
       </c>
       <c r="D4" t="n">
-        <v>399.2910939651453</v>
+        <v>399.2910939651448</v>
       </c>
       <c r="E4" t="n">
-        <v>251.3780003827521</v>
+        <v>251.3780003827517</v>
       </c>
       <c r="F4" t="n">
-        <v>104.4880528848418</v>
+        <v>104.4880528848413</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,19 +4494,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4521,19 +4521,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V4" t="n">
-        <v>1638.191681214136</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="W4" t="n">
         <v>1348.774511177175</v>
       </c>
       <c r="X4" t="n">
-        <v>1120.784960279158</v>
+        <v>1120.784960279157</v>
       </c>
       <c r="Y4" t="n">
-        <v>899.9923811356276</v>
+        <v>899.9923811356272</v>
       </c>
     </row>
     <row r="5">
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4585,28 +4585,28 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X5" t="n">
         <v>3121.906610713899</v>
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4719,10 +4719,10 @@
         <v>152.8520597582705</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4786,7 +4786,7 @@
         <v>1127.748203495404</v>
       </c>
       <c r="D8" t="n">
-        <v>769.4825048886539</v>
+        <v>769.4825048886535</v>
       </c>
       <c r="E8" t="n">
         <v>530.5269660969217</v>
@@ -4801,16 +4801,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,16 +4837,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
         <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
         <v>1514.348043559526</v>
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4959,7 +4959,7 @@
         <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468466</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589156</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.899304487667</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C13" t="n">
-        <v>580.899304487667</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753312</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929381</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>282.8695714929381</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>282.8695714929381</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>141.1577403351362</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235163</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258104</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602302</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396415</v>
+        <v>1535.492695461337</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359454</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614369</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179067</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6381,34 +6381,34 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,25 +6475,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,73 +7071,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.378057281681</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W37" t="n">
         <v>1652.96088724472</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346703</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y37" t="n">
         <v>1280.315625093766</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.514925172274</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7435,10 +7435,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7548,58 +7548,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7785,19 +7785,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>2.288530476235451e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.187794616238935e-12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.39816980427284</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>34.39816980427059</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405077</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>206.7713260796057</v>
+        <v>206.7713260796061</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.37549921168744</v>
+        <v>75.37549921168812</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>109.4223302771034</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615728.9971727139</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>615728.9971727141</v>
+        <v>615728.997172714</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900061</v>
@@ -26328,34 +26328,34 @@
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073544</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179362</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179347</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705990.9834478475</v>
+        <v>-705990.9834478471</v>
       </c>
       <c r="C6" t="n">
-        <v>622753.762279745</v>
+        <v>622753.7622797448</v>
       </c>
       <c r="D6" t="n">
-        <v>622753.7622797452</v>
+        <v>622753.7622797453</v>
       </c>
       <c r="E6" t="n">
-        <v>369097.1965525941</v>
+        <v>369409.8378815144</v>
       </c>
       <c r="F6" t="n">
-        <v>694509.6583599482</v>
+        <v>694822.2996888696</v>
       </c>
       <c r="G6" t="n">
-        <v>694509.6583599487</v>
+        <v>694822.2996888696</v>
       </c>
       <c r="H6" t="n">
-        <v>694509.6583599485</v>
+        <v>694822.29968887</v>
       </c>
       <c r="I6" t="n">
-        <v>694509.6583599485</v>
+        <v>694822.2996888703</v>
       </c>
       <c r="J6" t="n">
-        <v>476978.4559626709</v>
+        <v>477291.0972915924</v>
       </c>
       <c r="K6" t="n">
-        <v>694509.6583599485</v>
+        <v>694822.2996888699</v>
       </c>
       <c r="L6" t="n">
-        <v>694509.6583599487</v>
+        <v>694822.29968887</v>
       </c>
       <c r="M6" t="n">
-        <v>609454.6304244371</v>
+        <v>609767.2717533581</v>
       </c>
       <c r="N6" t="n">
-        <v>694509.6583599488</v>
+        <v>694822.29968887</v>
       </c>
       <c r="O6" t="n">
-        <v>694509.6583599485</v>
+        <v>694822.2996888699</v>
       </c>
       <c r="P6" t="n">
-        <v>694509.6583599487</v>
+        <v>694822.2996888696</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,17 +26962,17 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483748</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -26980,28 +26980,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>240.9947042380804</v>
+        <v>240.9947042380809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.4296311708964</v>
+        <v>128.4296311708969</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.256643680326</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.2784710214946</v>
+        <v>59.27847102149458</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>145.3643866684469</v>
+        <v>145.3643866684473</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992099</v>
+        <v>24.68204843992098</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.139557993131504e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28143,10 +28143,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.110130001765669e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.447311815557598e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565781</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>164.9290651940687</v>
@@ -34231,19 +34231,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121337</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>22.33282074962425</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
